--- a/cma_14400_5_1_nohb.xlsx
+++ b/cma_14400_5_1_nohb.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/multi-decode/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69E18A-DBF0-FA41-B367-D6545B563657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="s75 1000 2600 1100" sheetId="24" r:id="rId1"/>
@@ -65,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,18 +605,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -655,7 +639,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -664,12 +648,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1307,8 +1289,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3416-2C43-8D49-AA1DC8FF888E}"/>
             </c:ext>
@@ -1950,27 +1931,18 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3416-2C43-8D49-AA1DC8FF888E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="121095296"/>
-        <c:axId val="121097216"/>
+        <c:dLbls/>
+        <c:axId val="113023232"/>
+        <c:axId val="113029504"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -2608,8 +2580,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3416-2C43-8D49-AA1DC8FF888E}"/>
             </c:ext>
@@ -3252,32 +3223,23 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3416-2C43-8D49-AA1DC8FF888E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="120265728"/>
-        <c:axId val="120263808"/>
+        <c:dLbls/>
+        <c:axId val="113033600"/>
+        <c:axId val="113031424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121095296"/>
+        <c:axId val="113023232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3319,7 +3281,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3329,8 +3291,6 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3365,16 +3325,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121097216"/>
+        <c:crossAx val="113029504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121097216"/>
+        <c:axId val="113029504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3420,7 +3379,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3431,7 +3390,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3466,16 +3424,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121095296"/>
+        <c:crossAx val="113023232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120263808"/>
+        <c:axId val="113031424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
@@ -3508,7 +3465,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3518,8 +3475,6 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3554,22 +3509,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120265728"/>
+        <c:crossAx val="113033600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120265728"/>
+        <c:axId val="113033600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120263808"/>
+        <c:crossAx val="113031424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3583,7 +3536,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3614,14 +3567,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3650,7 +3602,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3677,7 +3629,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A68362-45E2-5D46-83B4-7B624C67F285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06A68362-45E2-5D46-83B4-7B624C67F285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3708,15 +3660,15 @@
       <cdr:y>0.68913</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.35304</cdr:x>
-      <cdr:y>0.84992</cdr:y>
+      <cdr:x>0.39888</cdr:x>
+      <cdr:y>0.84561</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70127FB-D4BB-D9FB-3896-FE4D5B580E67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C70127FB-D4BB-D9FB-3896-FE4D5B580E67}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3724,8 +3676,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1651000" y="5715000"/>
-          <a:ext cx="3581400" cy="1333500"/>
+          <a:off x="1510984" y="5526857"/>
+          <a:ext cx="3899215" cy="1254943"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3746,7 +3698,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1800" kern="1200"/>
-            <a:t>Equalizer Length: 3 Taps</a:t>
+            <a:t>Equalizer Length: 5 Taps</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -3773,9 +3725,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3813,7 +3765,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3847,7 +3799,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3882,10 +3833,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4058,16 +4008,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Z54" sqref="Z54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="2:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" ht="77" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4089,7 +4039,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4121,7 +4071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14">
       <c r="B3">
         <v>0</v>
       </c>
@@ -4155,7 +4105,7 @@
         <v>-1.7199999999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14">
       <c r="B4">
         <v>0.01</v>
       </c>
@@ -4189,7 +4139,7 @@
         <v>-1.58</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>0.02</v>
       </c>
@@ -4223,7 +4173,7 @@
         <v>-0.79999999999999982</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>0.03</v>
       </c>
@@ -4257,7 +4207,7 @@
         <v>-0.24000000000000021</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>0.04</v>
       </c>
@@ -4291,7 +4241,7 @@
         <v>-4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>0.05</v>
       </c>
@@ -4325,7 +4275,7 @@
         <v>-5.9999999999999609E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>0.06</v>
       </c>
@@ -4359,7 +4309,7 @@
         <v>-0.20000000000000018</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4393,7 +4343,7 @@
         <v>-0.35999999999999943</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>0.08</v>
       </c>
@@ -4427,7 +4377,7 @@
         <v>-0.51999999999999957</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>0.09</v>
       </c>
@@ -4461,7 +4411,7 @@
         <v>-0.66000000000000014</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>0.1</v>
       </c>
@@ -4495,7 +4445,7 @@
         <v>-0.74000000000000021</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>0.11</v>
       </c>
@@ -4529,7 +4479,7 @@
         <v>-0.77999999999999936</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>0.12</v>
       </c>
@@ -4563,7 +4513,7 @@
         <v>-0.83999999999999986</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>0.13</v>
       </c>
@@ -4597,7 +4547,7 @@
         <v>-0.87999999999999989</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14">
       <c r="B17">
         <v>0.14000000000000001</v>
       </c>
@@ -4631,7 +4581,7 @@
         <v>-0.91999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14">
       <c r="B18">
         <v>0.15</v>
       </c>
@@ -4665,7 +4615,7 @@
         <v>-0.97999999999999954</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14">
       <c r="B19">
         <v>0.16</v>
       </c>
@@ -4699,7 +4649,7 @@
         <v>-1.0199999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14">
       <c r="B20">
         <v>0.17</v>
       </c>
@@ -4733,7 +4683,7 @@
         <v>-1.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14">
       <c r="B21">
         <v>0.18</v>
       </c>
@@ -4767,7 +4717,7 @@
         <v>-1.1600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14">
       <c r="B22">
         <v>0.19</v>
       </c>
@@ -4801,7 +4751,7 @@
         <v>-1.2000000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14">
       <c r="B23">
         <v>0.2</v>
       </c>
@@ -4835,7 +4785,7 @@
         <v>-1.2199999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14">
       <c r="B24">
         <v>0.21</v>
       </c>
@@ -4869,7 +4819,7 @@
         <v>-1.2199999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14">
       <c r="B25">
         <v>0.22</v>
       </c>
@@ -4903,7 +4853,7 @@
         <v>-1.2199999999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14">
       <c r="B26">
         <v>0.23</v>
       </c>
@@ -4937,7 +4887,7 @@
         <v>-1.2199999999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27">
         <v>0.24</v>
       </c>
@@ -4971,7 +4921,7 @@
         <v>-1.2599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14">
       <c r="B28">
         <v>0.25</v>
       </c>
@@ -5005,7 +4955,7 @@
         <v>-1.2599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14">
       <c r="B29">
         <v>0.26</v>
       </c>
@@ -5039,7 +4989,7 @@
         <v>-1.2999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14">
       <c r="B30">
         <v>0.27</v>
       </c>
@@ -5073,7 +5023,7 @@
         <v>-1.2599999999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14">
       <c r="B31">
         <v>0.28000000000000003</v>
       </c>
@@ -5107,7 +5057,7 @@
         <v>-1.2599999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14">
       <c r="B32">
         <v>0.28999999999999998</v>
       </c>
@@ -5141,7 +5091,7 @@
         <v>-1.2999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14">
       <c r="B33">
         <v>0.3</v>
       </c>
@@ -5175,7 +5125,7 @@
         <v>-1.2999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14">
       <c r="B34">
         <v>0.31</v>
       </c>
@@ -5209,7 +5159,7 @@
         <v>-1.2799999999999994</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14">
       <c r="B35">
         <v>0.32</v>
       </c>
@@ -5243,7 +5193,7 @@
         <v>-1.2599999999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14">
       <c r="B36">
         <v>0.33</v>
       </c>
@@ -5277,7 +5227,7 @@
         <v>-1.2799999999999994</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14">
       <c r="B37">
         <v>0.34</v>
       </c>
@@ -5311,7 +5261,7 @@
         <v>-1.2999999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14">
       <c r="B38">
         <v>0.35</v>
       </c>
@@ -5345,7 +5295,7 @@
         <v>-1.2999999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14">
       <c r="B39">
         <v>0.36</v>
       </c>
@@ -5379,7 +5329,7 @@
         <v>-1.2999999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14">
       <c r="B40">
         <v>0.37</v>
       </c>
@@ -5413,7 +5363,7 @@
         <v>-1.2999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14">
       <c r="B41">
         <v>0.38</v>
       </c>
@@ -5447,7 +5397,7 @@
         <v>-1.2999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14">
       <c r="B42">
         <v>0.39</v>
       </c>
@@ -5481,7 +5431,7 @@
         <v>-1.3199999999999994</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14">
       <c r="B43">
         <v>0.4</v>
       </c>
@@ -5515,7 +5465,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14">
       <c r="B44">
         <v>0.41</v>
       </c>
@@ -5549,7 +5499,7 @@
         <v>-1.3199999999999994</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14">
       <c r="B45">
         <v>0.42</v>
       </c>
@@ -5583,7 +5533,7 @@
         <v>-1.3199999999999994</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14">
       <c r="B46">
         <v>0.43</v>
       </c>
@@ -5617,7 +5567,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14">
       <c r="B47">
         <v>0.44</v>
       </c>
@@ -5651,7 +5601,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14">
       <c r="B48">
         <v>0.45</v>
       </c>
@@ -5685,7 +5635,7 @@
         <v>-1.3199999999999994</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14">
       <c r="B49">
         <v>0.46</v>
       </c>
@@ -5719,7 +5669,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14">
       <c r="B50">
         <v>0.47</v>
       </c>
@@ -5753,7 +5703,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14">
       <c r="B51">
         <v>0.48</v>
       </c>
@@ -5787,7 +5737,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14">
       <c r="B52">
         <v>0.49</v>
       </c>
@@ -5821,7 +5771,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14">
       <c r="B53">
         <v>0.5</v>
       </c>
@@ -5855,7 +5805,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14">
       <c r="B54">
         <v>0.51</v>
       </c>
@@ -5889,7 +5839,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14">
       <c r="B55">
         <v>0.52</v>
       </c>
@@ -5923,7 +5873,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14">
       <c r="B56">
         <v>0.53</v>
       </c>
@@ -5957,7 +5907,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14">
       <c r="B57">
         <v>0.54</v>
       </c>
@@ -5991,7 +5941,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14">
       <c r="B58">
         <v>0.55000000000000004</v>
       </c>
@@ -6025,7 +5975,7 @@
         <v>-1.3999999999999995</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14">
       <c r="B59">
         <v>0.56000000000000005</v>
       </c>
@@ -6059,7 +6009,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14">
       <c r="B60">
         <v>0.56999999999999995</v>
       </c>
@@ -6093,7 +6043,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14">
       <c r="B61">
         <v>0.57999999999999996</v>
       </c>
@@ -6127,7 +6077,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14">
       <c r="B62">
         <v>0.59</v>
       </c>
@@ -6161,7 +6111,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14">
       <c r="B63">
         <v>0.6</v>
       </c>
@@ -6195,7 +6145,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14">
       <c r="B64">
         <v>0.61</v>
       </c>
@@ -6229,7 +6179,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14">
       <c r="B65">
         <v>0.62</v>
       </c>
@@ -6263,7 +6213,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14">
       <c r="B66">
         <v>0.63</v>
       </c>
@@ -6297,7 +6247,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14">
       <c r="B67">
         <v>0.64</v>
       </c>
@@ -6331,7 +6281,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14">
       <c r="B68">
         <v>0.65</v>
       </c>
@@ -6365,7 +6315,7 @@
         <v>-1.3999999999999995</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14">
       <c r="B69">
         <v>0.66</v>
       </c>
@@ -6399,7 +6349,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14">
       <c r="B70">
         <v>0.67</v>
       </c>
@@ -6433,7 +6383,7 @@
         <v>-1.3999999999999995</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14">
       <c r="B71">
         <v>0.68</v>
       </c>
@@ -6467,7 +6417,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14">
       <c r="B72">
         <v>0.69</v>
       </c>
@@ -6501,7 +6451,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14">
       <c r="B73">
         <v>0.7</v>
       </c>
@@ -6535,7 +6485,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14">
       <c r="B74">
         <v>0.71</v>
       </c>
@@ -6569,7 +6519,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14">
       <c r="B75">
         <v>0.72</v>
       </c>
@@ -6603,7 +6553,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14">
       <c r="B76">
         <v>0.73</v>
       </c>
@@ -6637,7 +6587,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14">
       <c r="B77">
         <v>0.74</v>
       </c>
@@ -6671,7 +6621,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14">
       <c r="B78">
         <v>0.75</v>
       </c>
@@ -6705,7 +6655,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14">
       <c r="B79">
         <v>0.76</v>
       </c>
@@ -6739,7 +6689,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14">
       <c r="B80">
         <v>0.77</v>
       </c>
@@ -6773,7 +6723,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14">
       <c r="B81">
         <v>0.78</v>
       </c>
@@ -6807,7 +6757,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14">
       <c r="B82">
         <v>0.79</v>
       </c>
@@ -6841,7 +6791,7 @@
         <v>-1.3999999999999995</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14">
       <c r="B83">
         <v>0.8</v>
       </c>
@@ -6875,7 +6825,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14">
       <c r="B84">
         <v>0.81</v>
       </c>
@@ -6909,7 +6859,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14">
       <c r="B85">
         <v>0.82</v>
       </c>
@@ -6943,7 +6893,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14">
       <c r="B86">
         <v>0.83</v>
       </c>
@@ -6977,7 +6927,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14">
       <c r="B87">
         <v>0.84</v>
       </c>
@@ -7011,7 +6961,7 @@
         <v>-1.3999999999999995</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14">
       <c r="B88">
         <v>0.85</v>
       </c>
@@ -7045,7 +6995,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14">
       <c r="B89">
         <v>0.86</v>
       </c>
@@ -7079,7 +7029,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14">
       <c r="B90">
         <v>0.87</v>
       </c>
@@ -7113,7 +7063,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14">
       <c r="B91">
         <v>0.88</v>
       </c>
@@ -7147,7 +7097,7 @@
         <v>-1.42</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14">
       <c r="B92">
         <v>0.89</v>
       </c>
@@ -7181,7 +7131,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14">
       <c r="B93">
         <v>0.9</v>
       </c>
@@ -7215,7 +7165,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14">
       <c r="B94">
         <v>0.91</v>
       </c>
@@ -7249,7 +7199,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14">
       <c r="B95">
         <v>0.92</v>
       </c>
@@ -7283,7 +7233,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14">
       <c r="B96">
         <v>0.93</v>
       </c>
@@ -7317,7 +7267,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14">
       <c r="B97">
         <v>0.94</v>
       </c>
@@ -7351,7 +7301,7 @@
         <v>-1.3399999999999999</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14">
       <c r="B98">
         <v>0.95</v>
       </c>
@@ -7385,7 +7335,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14">
       <c r="B99">
         <v>0.96</v>
       </c>
@@ -7419,7 +7369,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14">
       <c r="B100">
         <v>0.97</v>
       </c>
@@ -7453,7 +7403,7 @@
         <v>-1.3599999999999994</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14">
       <c r="B101">
         <v>0.98</v>
       </c>
@@ -7487,7 +7437,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14">
       <c r="B102">
         <v>0.99</v>
       </c>
